--- a/2009-02-08 Oriente Kilimajaro.xlsx
+++ b/2009-02-08 Oriente Kilimajaro.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Temp</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,11 +56,33 @@
     <t>Total</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>5h, 7h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rolling SC, probably on the ES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -277,88 +299,88 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,6 +560,96 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>382.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>435.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +1093,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1081,273 +1193,375 @@
       <c r="A6" s="1">
         <v>1.38888888888889E-3</v>
       </c>
+      <c r="B6">
+        <v>197</v>
+      </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1.7361111111111099E-3</v>
       </c>
+      <c r="B7">
+        <v>212</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>2.0833333333333298E-3</v>
       </c>
+      <c r="B8">
+        <v>226</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>2.4305555555555599E-3</v>
       </c>
+      <c r="B9">
+        <v>239</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>2.7777777777777801E-3</v>
       </c>
+      <c r="B10">
+        <v>251</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>3.1250000000000002E-3</v>
       </c>
+      <c r="B11">
+        <v>262</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>3.4722222222222199E-3</v>
       </c>
+      <c r="B12">
+        <v>273</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>3.81944444444444E-3</v>
       </c>
+      <c r="B13">
+        <v>283</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>4.1666666666666701E-3</v>
       </c>
+      <c r="B14">
+        <v>292</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>4.5138888888888902E-3</v>
       </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>4.8611111111111103E-3</v>
       </c>
+      <c r="B16">
+        <v>308</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>5.2083333333333296E-3</v>
       </c>
+      <c r="B17">
+        <v>316</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>5.5555555555555601E-3</v>
       </c>
+      <c r="B18">
+        <v>324</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>5.9027777777777802E-3</v>
       </c>
+      <c r="B19">
+        <v>332</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>6.2500000000000003E-3</v>
       </c>
+      <c r="B20">
+        <v>340</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>6.5972222222222196E-3</v>
       </c>
+      <c r="B21">
+        <v>347</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>6.9444444444444397E-3</v>
       </c>
+      <c r="B22">
+        <v>355</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>7.2916666666666703E-3</v>
       </c>
+      <c r="B23">
+        <v>363</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>7.6388888888888904E-3</v>
       </c>
+      <c r="B24">
+        <v>369</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>7.9861111111111105E-3</v>
       </c>
+      <c r="B25">
+        <v>376</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>8.3333333333333297E-3</v>
       </c>
+      <c r="B26">
+        <v>382</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>8.6805555555555594E-3</v>
       </c>
+      <c r="B27">
+        <v>388</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>9.0277777777777804E-3</v>
       </c>
+      <c r="B28">
+        <v>394</v>
+      </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>9.3749999999999997E-3</v>
       </c>
+      <c r="B29">
+        <v>400</v>
+      </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>9.7222222222222206E-3</v>
       </c>
+      <c r="B30">
+        <v>405</v>
+      </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>1.00694444444444E-2</v>
       </c>
+      <c r="B31">
+        <v>410</v>
+      </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>1.0416666666666701E-2</v>
       </c>
+      <c r="B32">
+        <v>415</v>
+      </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>1.0763888888889E-2</v>
       </c>
+      <c r="B33">
+        <v>421</v>
+      </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>1.1111111111111301E-2</v>
       </c>
+      <c r="B34">
+        <v>428</v>
+      </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>1.14583333333336E-2</v>
       </c>
+      <c r="B35">
+        <v>435</v>
+      </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>1.18055555555556E-2</v>
       </c>
@@ -1356,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>1.2152777777777801E-2</v>
       </c>
@@ -1365,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1374,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>1.2847222222222201E-2</v>
       </c>
@@ -1383,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>1.3194444444444399E-2</v>
       </c>
@@ -1392,12 +1606,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
